--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747282.1545318937</v>
+        <v>743870.5505813218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889759</v>
+        <v>335690.3293889766</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>90.0851035971169</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.863583504628</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>263.2420339516669</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>239.6702657845106</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>125.6384340685022</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>79.87317071446562</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,43 +1303,43 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>159.8350691069752</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>333.4054520543809</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>261.2505173377031</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6751203255735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.6787850649187</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>269.5177472176157</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1737,7 +1737,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1786,7 +1786,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>34.45403149117919</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>279.9387901805692</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>15.72604893648614</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>292.1380595743621</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>21.06378739764988</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>69.07086245343525</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>172.0605432780345</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>281.6126679114863</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>60.48389944297953</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>278.1042434841863</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2649,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>55.84003136202612</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>1.595867353580738</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>112.8566199863817</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>99.78378017339102</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>63.37099713517632</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.57756245340212</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>128.4970238253391</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>37.35930701763444</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3281,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>189.7384634794228</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.06613335611772</v>
+        <v>37.83808333974849</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>130.1024780662195</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>135.0087211245115</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>198.2175085914299</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3867,7 +3867,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3940,25 +3940,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>130.8951884589055</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>257.4461293724456</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>181.8745616200808</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.024624796403</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,7 +4443,7 @@
         <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
         <v>19.28114311021272</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>517.4848137278872</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>517.4848137278872</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W5" t="n">
-        <v>274.0360370837871</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.58726043968704</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>873.0621013721343</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>873.0621013721343</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="C8" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613335</v>
@@ -4814,7 +4814,7 @@
         <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
         <v>950.1371873885148</v>
@@ -4835,19 +4835,19 @@
         <v>1052.968135806668</v>
       </c>
       <c r="U8" t="n">
-        <v>818.7624959030029</v>
+        <v>799.0911139693623</v>
       </c>
       <c r="V8" t="n">
-        <v>552.8614515073797</v>
+        <v>799.0911139693623</v>
       </c>
       <c r="W8" t="n">
-        <v>286.9604071117565</v>
+        <v>533.190069573739</v>
       </c>
       <c r="X8" t="n">
-        <v>286.9604071117565</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800413</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C9" t="n">
         <v>21.05936271613335</v>
@@ -4881,22 +4881,22 @@
         <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683217</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>398.824578434775</v>
+        <v>261.6628906109959</v>
       </c>
       <c r="M9" t="n">
-        <v>659.4341920469252</v>
+        <v>522.2725042231461</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141754</v>
+        <v>782.8821178352964</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806668</v>
+        <v>1043.295181927789</v>
       </c>
       <c r="P9" t="n">
         <v>1052.968135806668</v>
@@ -4908,25 +4908,25 @@
         <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993085</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>799.7995579806563</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>571.5792292228612</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V9" t="n">
-        <v>571.5792292228612</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="W9" t="n">
-        <v>571.5792292228612</v>
+        <v>563.5786708467233</v>
       </c>
       <c r="X9" t="n">
-        <v>363.7277290173284</v>
+        <v>355.7271706411905</v>
       </c>
       <c r="Y9" t="n">
-        <v>363.7277290173284</v>
+        <v>147.9668718762366</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
         <v>21.05936271613335</v>
@@ -4987,25 +4987,25 @@
         <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.7161657136784</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014692</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1167.455337753612</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>777.3160057778002</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="12">
@@ -5136,7 +5136,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600561</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600561</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1540.921096014692</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C14" t="n">
-        <v>1540.921096014692</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D14" t="n">
-        <v>1540.921096014692</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E14" t="n">
-        <v>1155.132843416447</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F14" t="n">
-        <v>744.14693862684</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>326.1831305250269</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>1540.921096014692</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y14" t="n">
-        <v>1540.921096014692</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5385,13 +5385,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>225.0739447330083</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>88.74503383165657</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
@@ -5592,25 +5592,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5631,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5692,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>320.3920853967602</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>320.3920853967602</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2323.103882821189</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5753,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5786,16 +5786,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2675.872538091303</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.103882821189</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.103882821189</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
@@ -5829,16 +5829,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5868,10 +5868,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5914,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W22" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G23" t="n">
         <v>207.4089578252748</v>
@@ -5990,10 +5990,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>2412.69185070359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>2412.69185070359</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W25" t="n">
-        <v>2412.69185070359</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X25" t="n">
-        <v>2412.69185070359</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1192.157102157134</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C26" t="n">
-        <v>823.1945852167225</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2636.054243096021</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2304.99135575245</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="W26" t="n">
-        <v>1952.222700482336</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X26" t="n">
-        <v>1578.756942221256</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y26" t="n">
-        <v>1578.756942221256</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
@@ -6324,22 +6324,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.942782082032</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C28" t="n">
-        <v>222.942782082032</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.952954307291</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090463</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194388</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224075</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.425425970681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C32" t="n">
-        <v>951.4629090302697</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D32" t="n">
-        <v>593.1972104235191</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2596.357393873383</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2377.722726845446</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2377.722726845446</v>
+        <v>2633.137982800873</v>
       </c>
       <c r="V32" t="n">
-        <v>2046.659839501875</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="W32" t="n">
-        <v>1693.891184231761</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X32" t="n">
-        <v>1320.425425970681</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.425425970681</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6798,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2191.89927156006</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="U34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="V34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="W34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="X34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="Y34" t="n">
-        <v>2249.048324543294</v>
+        <v>2321.694245121009</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>882.8926947117852</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C35" t="n">
-        <v>882.8926947117852</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>1401.290064435879</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6965,22 +6965,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>2033.097625012799</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W35" t="n">
-        <v>2033.097625012799</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X35" t="n">
-        <v>1659.631866751719</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y35" t="n">
-        <v>1269.492534775907</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.7460229006679</v>
+        <v>2658.928804816457</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>2489.99262188855</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694737</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694737</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694737</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7193,7 +7193,7 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7202,22 +7202,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>698.7120650600563</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>698.7120650600563</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W40" t="n">
-        <v>698.7120650600563</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X40" t="n">
-        <v>562.3396194797416</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.3396194797416</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C41" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D41" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7430,31 +7430,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.097842756629</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y41" t="n">
-        <v>1422.958510780817</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
         <v>665.1105362747051</v>
@@ -7485,34 +7485,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073964</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2173.079728044489</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>2173.079728044489</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>2173.079728044489</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>739.4034003911122</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C44" t="n">
-        <v>739.4034003911122</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018223</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1126.003240455234</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1126.003240455234</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="45">
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>2632.930119860553</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>2486.040172362642</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>2317.040372100975</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
         <v>2022.963088632153</v>
@@ -7810,46 +7810,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>252.9329963465696</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368072</v>
+        <v>134.2926466205232</v>
       </c>
       <c r="Q9" t="n">
         <v>133.6630807868109</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,19 +22595,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22683,10 +22683,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>404.1096813589555</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>331.6961560838159</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,28 +22826,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22872,16 +22872,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>10.07273055552623</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.2102214038314</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,19 +23075,19 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>19.47466811430422</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>85.99893476574613</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>130.0608348939584</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>40.89474958136518</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23148,25 +23148,25 @@
         <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>120.0920362946092</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.114410708933576</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
         <v>161.8582038473137</v>
@@ -23227,7 +23227,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>63.45830508392203</v>
       </c>
       <c r="T10" t="n">
         <v>227.7682732010226</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.86743971662668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>152.5336526830919</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>177.8934269655253</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74592769735776</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23467,7 +23467,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>77.0042565557643</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>54.4050255467414</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>74.74425144011371</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>209.3090565215981</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>89.79231049789968</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,16 +24026,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>306.688471072485</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726061</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24206,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>296.2020293175723</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>182.6224983426485</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,19 +24418,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>4.669206330491477</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24443,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>190.7402680653097</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>49.64801498594863</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>230.6829669745649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>384.6420713024729</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,19 +24847,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>32.56442803654951</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>74.63193263558051</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>187.853170373113</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.2544177285352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>38.8127784337118</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>344.5710630546274</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>138.0137949907121</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.76584682581958</v>
+        <v>141.9938968421888</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,13 +25394,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>85.16958467259894</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25442,16 +25442,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>86.34584229143829</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,16 +25603,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>90.70093426452564</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>171.5135920870391</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,25 +25828,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>94.13991699917878</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>125.287712291035</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>187.8565390583882</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,22 +26029,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.9393513078</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668499</v>
+        <v>476112.79446685</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972482</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26329,7 +26329,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26341,7 +26341,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26350,10 +26350,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="P2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245779.718513394</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16565.16787800056</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4336.588039112139</v>
+        <v>-4728.818284657726</v>
       </c>
       <c r="C6" t="n">
-        <v>76432.84349243555</v>
+        <v>76040.61324689002</v>
       </c>
       <c r="D6" t="n">
-        <v>54025.96513975096</v>
+        <v>53633.11993467418</v>
       </c>
       <c r="E6" t="n">
-        <v>-228985.9102937857</v>
+        <v>-229401.124803253</v>
       </c>
       <c r="F6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="G6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="H6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="I6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="J6" t="n">
-        <v>115674.5847906822</v>
+        <v>115259.3702812149</v>
       </c>
       <c r="K6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="L6" t="n">
-        <v>173108.8851612626</v>
+        <v>172693.6706517955</v>
       </c>
       <c r="M6" t="n">
-        <v>76300.40969915333</v>
+        <v>75885.19518968606</v>
       </c>
       <c r="N6" t="n">
-        <v>178734.5273897885</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="O6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803213</v>
       </c>
       <c r="P6" t="n">
-        <v>178734.5273897885</v>
+        <v>178319.3128803212</v>
       </c>
     </row>
   </sheetData>
@@ -26747,37 +26747,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,19 +31513,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
         <v>14.59973623455499</v>
@@ -31537,25 +31537,25 @@
         <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
         <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
         <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,19 +31595,19 @@
         <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
         <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
         <v>12.54229356430034</v>
@@ -31619,19 +31619,19 @@
         <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
         <v>0.00325661075756457</v>
@@ -31671,10 +31671,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
         <v>1.248004425047542</v>
@@ -31683,22 +31683,22 @@
         <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
         <v>3.475020785705232</v>
@@ -31707,13 +31707,13 @@
         <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
         <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>243.0338665604673</v>
@@ -35261,13 +35261,13 @@
         <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>134.4655350174244</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
         <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.770660483716004</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35346,7 +35346,7 @@
         <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36683,13 +36683,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>130.3926104730631</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743870.5505813218</v>
+        <v>784180.4057267145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889766</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8139267.539434056</v>
+        <v>8121653.028417466</v>
       </c>
     </row>
     <row r="11">
@@ -701,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -719,13 +721,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>11.19305615617957</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.042753987605476</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>96.52468151912586</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>90.0851035971169</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>239.6702657845106</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>125.6384340685022</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>142.054382817392</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>261.2505173377031</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.49894207942067</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1525,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.938553216412018</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>307.9895902233669</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>277.6787850649187</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1698,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>34.45403149117919</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1847,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>353.5759586385877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>226.268308634227</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G18" t="n">
         <v>136.5310119231965</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>77.39042090546074</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>292.1380595743621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>128.7835007017903</v>
+        <v>16.88986550434897</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>172.0605432780345</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>278.1042434841863</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>54.47555601903409</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>35.10922304334554</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.595867353580738</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>25.31590541686196</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>63.37099713517632</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4970238253391</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>141.3865903334046</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>37.35930701763444</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>75.24189899977735</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.83808333974849</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6.621576176023336</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>295.2947340238483</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>130.1024780662195</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>24.25641376481878</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364057</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.4461293724456</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>129.024624796403</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4349,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>30.58726043968704</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>961.9937676443681</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>961.9937676443681</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>961.9937676443681</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>961.9937676443681</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>873.0621013721343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>873.0621013721343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>670.8755067309003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>670.8755067309003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>670.8755067309003</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>670.8755067309003</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>670.8755067309003</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.8755067309003</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>799.0911139693623</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V8" t="n">
-        <v>799.0911139693623</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W8" t="n">
-        <v>533.190069573739</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X8" t="n">
-        <v>291.0988920136273</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.19784761800413</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231461</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352964</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927789</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>817.8160275749249</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>563.5786708467233</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>355.7271706411905</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y9" t="n">
-        <v>147.9668718762366</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.314837422907</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>1215.352320482495</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>857.0866218757444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E11" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F11" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.251169725878</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2481.073682040048</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1970.914677487028</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5227,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>898.8784838925781</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C14" t="n">
-        <v>898.8784838925781</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>618.3948626148824</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>618.3948626148824</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5288,7 +5290,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1289.01781586839</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>898.8784838925781</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600561</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>551.8221175621458</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>382.8223173004782</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>225.0739447330083</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>88.74503383165657</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1309.714918859356</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C17" t="n">
-        <v>1309.714918859356</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X17" t="n">
-        <v>1309.714918859356</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y17" t="n">
-        <v>1309.714918859356</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>649.956841877686</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5792,10 +5794,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C22" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D22" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="E22" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="F22" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>184.027325963587</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X22" t="n">
-        <v>184.027325963587</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.027325963587</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5965,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1004.183115213127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>618.3948626148824</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
         <v>2323.683332757143</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>184.027325963587</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952.5674858910851</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1712.633084216287</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1712.633084216287</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1339.167325955207</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1339.167325955207</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.6879402326646</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7517573047577</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629043</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>934.637173372437</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C29" t="n">
         <v>565.6746564320254</v>
@@ -6458,55 +6460,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>936.2491605982761</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y29" t="n">
-        <v>934.637173372437</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>2196.44780384774</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>2048.534710265347</v>
       </c>
       <c r="F31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6627,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>2566.821187183472</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>2277.64757683804</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>799.1015098861748</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2633.137982800873</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2302.075095457302</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1949.306440187188</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1575.840681926108</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1185.701349950297</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C34" t="n">
-        <v>2152.758062193102</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2152.758062193102</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2152.758062193102</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2152.758062193102</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
         <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2549.002432452407</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="U34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="V34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="W34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="X34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="Y34" t="n">
-        <v>2321.694245121009</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1759.555763042629</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C35" t="n">
-        <v>1759.555763042629</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D35" t="n">
-        <v>1401.290064435879</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6968,19 +6970,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2621.14717283663</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312744</v>
+        <v>2290.084285493059</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.555763042629</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y35" t="n">
-        <v>1759.555763042629</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036446</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2658.928804816457</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C37" t="n">
-        <v>2489.99262188855</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="D37" t="n">
-        <v>2339.875982476214</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="E37" t="n">
-        <v>2191.962888893821</v>
+        <v>2198.651349677683</v>
       </c>
       <c r="F37" t="n">
         <v>2191.962888893821</v>
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.9054987607761</v>
+        <v>1139.146815977587</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2204909353627</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.703757037383</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.941971675474</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>1925.879084331904</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W38" t="n">
-        <v>1573.11042906179</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.64467080071</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.505338824898</v>
+        <v>1525.746656041709</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7290,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240418</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240418</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>159.5099885583422</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7430,31 +7432,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>936.2491605982757</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>546.109828622464</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7464,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073964</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
         <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>934.637173372437</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C44" t="n">
-        <v>565.6746564320254</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>207.4089578252748</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7682,16 +7684,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1584.823100673951</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1194.68376869814</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
@@ -7810,37 +7812,37 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>2566.821187183472</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="U46" t="n">
-        <v>2277.64757683804</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V46" t="n">
-        <v>2022.963088632153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
         <v>2022.963088632153</v>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2926466205232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22607,13 +22609,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>338.0479125612334</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>98.11508016503765</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22835,13 +22837,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>10.07273055552623</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>30.46185652629862</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>130.0608348939584</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043867</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.89474958136518</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>63.71860238608551</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>63.45830508392203</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>152.5336526830919</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>14.97946049539106</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.8934269655253</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23467,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>77.0042565557643</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.74592769735781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23735,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>143.462792044242</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,25 +23940,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>134.7551180445582</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>89.79231049789968</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>38.52630155726061</v>
+        <v>150.419936754702</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>182.6224983426485</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24421,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724685</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>49.64801498594863</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>330.163668727662</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>384.6420713024729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060693</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24889,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>187.853170373113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>38.8127784337118</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.6485151246797</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>344.5710630546274</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,7 +25210,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>175.9822685085119</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.9938968421888</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>138.7994718469079</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>28.62803874050888</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25442,13 +25444,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>86.34584229143829</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.19271039829675</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>192.191906592839</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744437</v>
+        <v>130.3958356744438</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.287712291035</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25883,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.0104806616813</v>
+        <v>130.395835674444</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.79446685</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="15">
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26326,7 +26328,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26338,7 +26340,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26350,7 +26352,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266329</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525715</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
+        <v>16914.68964098083</v>
+      </c>
+      <c r="D4" t="n">
         <v>16914.68964098084</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26488,16 +26490,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657726</v>
+        <v>-4728.818284657747</v>
       </c>
       <c r="C6" t="n">
-        <v>76040.61324689002</v>
+        <v>76040.61324689005</v>
       </c>
       <c r="D6" t="n">
-        <v>53633.11993467418</v>
+        <v>76040.61324689005</v>
       </c>
       <c r="E6" t="n">
-        <v>-229401.124803253</v>
+        <v>-254526.8611626749</v>
       </c>
       <c r="F6" t="n">
         <v>178319.3128803212</v>
       </c>
       <c r="G6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="H6" t="n">
         <v>178319.3128803212</v>
@@ -26546,22 +26548,22 @@
         <v>115259.3702812149</v>
       </c>
       <c r="K6" t="n">
+        <v>178319.3128803211</v>
+      </c>
+      <c r="L6" t="n">
         <v>178319.3128803212</v>
       </c>
-      <c r="L6" t="n">
-        <v>172693.6706517955</v>
-      </c>
       <c r="M6" t="n">
-        <v>75885.19518968606</v>
+        <v>70345.952206263</v>
       </c>
       <c r="N6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="O6" t="n">
-        <v>178319.3128803213</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="P6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
     </row>
   </sheetData>
@@ -26741,25 +26743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170867</v>
@@ -26771,13 +26773,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26808,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34781,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483716004</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36926,7 +36928,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37798,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
